--- a/userregion2.xlsx
+++ b/userregion2.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\python_code\DQNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A38D6B5-78AA-48CB-A283-27EFA4539AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECE807-16D5-4AD5-8521-57503045A89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1390" windowWidth="10800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8540" yWindow="5270" windowWidth="10800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -48,12 +42,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,9 +68,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -86,6 +87,1154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$CV$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95EA-4B94-A31F-4A9D00EFB54C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="350809488"/>
+        <c:axId val="350809808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="350809488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350809808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350809808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350809488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983F6481-340D-48C0-A068-DBE2B18919C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,7 +1525,7 @@
   <dimension ref="A1:CV13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4005,411 +5154,666 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:100" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>SUM(A1:A12)</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:BM13" si="0">SUM(B1:B12)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="W13" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="X13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Y13" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AA13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AF13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AG13" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AI13" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AJ13" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AK13" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AL13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AO13" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AP13" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AQ13" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AR13" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AS13" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AT13" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AU13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AV13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AW13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AZ13" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BA13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="BB13" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="BC13" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="BD13" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="BE13" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="BF13" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="BG13" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BH13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BI13" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BJ13" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BK13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BL13" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BM13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="BN13" s="1">
-        <f t="shared" ref="BN13:CV13" si="1">SUM(BN1:BN12)</f>
-        <v>25</v>
-      </c>
-      <c r="BO13" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="BP13" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="BQ13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BR13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BS13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BT13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BV13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BW13" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BX13" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="BY13" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="BZ13" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="CA13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CB13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CC13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CD13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CE13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CF13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CG13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CH13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CI13" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="CJ13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CK13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CL13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CM13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CN13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CO13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CP13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CQ13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CR13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CS13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CT13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CU13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CV13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="13" spans="1:100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633DED0D-2A2A-47AE-BBEE-8AF11FA1B078}">
+  <dimension ref="A1:CV1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>3</v>
+      </c>
+      <c r="W1">
+        <v>4</v>
+      </c>
+      <c r="X1">
+        <v>12</v>
+      </c>
+      <c r="Y1">
+        <v>18</v>
+      </c>
+      <c r="Z1">
+        <v>3</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>5</v>
+      </c>
+      <c r="AG1">
+        <v>3</v>
+      </c>
+      <c r="AH1">
+        <v>20</v>
+      </c>
+      <c r="AI1">
+        <v>20</v>
+      </c>
+      <c r="AJ1">
+        <v>26</v>
+      </c>
+      <c r="AK1">
+        <v>14</v>
+      </c>
+      <c r="AL1">
+        <v>1</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>1</v>
+      </c>
+      <c r="AO1">
+        <v>2</v>
+      </c>
+      <c r="AP1">
+        <v>9</v>
+      </c>
+      <c r="AQ1">
+        <v>7</v>
+      </c>
+      <c r="AR1">
+        <v>14</v>
+      </c>
+      <c r="AS1">
+        <v>26</v>
+      </c>
+      <c r="AT1">
+        <v>15</v>
+      </c>
+      <c r="AU1">
+        <v>6</v>
+      </c>
+      <c r="AV1">
+        <v>5</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>5</v>
+      </c>
+      <c r="AZ1">
+        <v>4</v>
+      </c>
+      <c r="BA1">
+        <v>12</v>
+      </c>
+      <c r="BB1">
+        <v>15</v>
+      </c>
+      <c r="BC1">
+        <v>18</v>
+      </c>
+      <c r="BD1">
+        <v>19</v>
+      </c>
+      <c r="BE1">
+        <v>27</v>
+      </c>
+      <c r="BF1">
+        <v>16</v>
+      </c>
+      <c r="BG1">
+        <v>4</v>
+      </c>
+      <c r="BH1">
+        <v>1</v>
+      </c>
+      <c r="BI1">
+        <v>2</v>
+      </c>
+      <c r="BJ1">
+        <v>2</v>
+      </c>
+      <c r="BK1">
+        <v>5</v>
+      </c>
+      <c r="BL1">
+        <v>7</v>
+      </c>
+      <c r="BM1">
+        <v>5</v>
+      </c>
+      <c r="BN1">
+        <v>25</v>
+      </c>
+      <c r="BO1">
+        <v>26</v>
+      </c>
+      <c r="BP1">
+        <v>16</v>
+      </c>
+      <c r="BQ1">
+        <v>2</v>
+      </c>
+      <c r="BR1">
+        <v>1</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>2</v>
+      </c>
+      <c r="BV1">
+        <v>1</v>
+      </c>
+      <c r="BW1">
+        <v>8</v>
+      </c>
+      <c r="BX1">
+        <v>17</v>
+      </c>
+      <c r="BY1">
+        <v>13</v>
+      </c>
+      <c r="BZ1">
+        <v>16</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>1</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>2</v>
+      </c>
+      <c r="CG1">
+        <v>1</v>
+      </c>
+      <c r="CH1">
+        <v>2</v>
+      </c>
+      <c r="CI1">
+        <v>3</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <v>2</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>1</v>
+      </c>
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <v>1</v>
+      </c>
+      <c r="CV1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9BDC1B-9031-4C75-A8B5-5305C4FD54CF}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>